--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2641087.509285171</v>
+        <v>-2643992.381432325</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>121.9722865630709</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>118.193337022295</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>204.1177840819107</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -862,16 +862,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903363</v>
+        <v>279.5106614771182</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09300973225714</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>294.9762176136676</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.67884460201125</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>65.72154808652246</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>9.11708604903261</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>69.39384663017711</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>269.5647966261185</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2476,25 +2476,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265257</v>
+        <v>56.98118882652567</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808068</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265258</v>
+        <v>56.9811888265257</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652579</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,13 +4189,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.7961669387041</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C2" t="n">
-        <v>326.7961669387041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1103.535338978638</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>713.3960070028259</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,31 +4492,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>823.3126770315976</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>365.8221612491146</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>716.3321714771301</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>502.0437482952929</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>224.6669506791649</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1351.24026920853</v>
+        <v>1670.643119699176</v>
       </c>
       <c r="C8" t="n">
-        <v>982.2777522681185</v>
+        <v>1301.680602758765</v>
       </c>
       <c r="D8" t="n">
-        <v>915.8923501605201</v>
+        <v>1301.680602758765</v>
       </c>
       <c r="E8" t="n">
-        <v>915.8923501605201</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
         <v>491.8590676477442</v>
@@ -4808,10 +4808,10 @@
         <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>297.0690422295933</v>
+        <v>710.5536446345393</v>
       </c>
       <c r="M8" t="n">
-        <v>928.786853212905</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2687.939913190917</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.442488527913</v>
+        <v>2434.248209936068</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184342</v>
+        <v>2434.248209936068</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.379601184342</v>
+        <v>2434.248209936068</v>
       </c>
       <c r="X8" t="n">
-        <v>1741.379601184342</v>
+        <v>2060.782451674988</v>
       </c>
       <c r="Y8" t="n">
-        <v>1351.24026920853</v>
+        <v>1670.643119699176</v>
       </c>
     </row>
     <row r="9">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>853.3049074231753</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>564.1527310008552</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="V10" t="n">
-        <v>564.1527310008552</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5127,7 +5127,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438179</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,7 +5838,7 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6075,7 +6075,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6124,34 +6124,34 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
         <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,10 +6160,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
         <v>2639.297491717215</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6215,34 +6215,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954154</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
@@ -6403,28 +6403,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,16 +6643,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6661,7 +6661,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -7023,7 +7023,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,25 +7093,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.79828551875</v>
@@ -7138,7 +7138,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7257,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,7 +7406,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942654</v>
@@ -7801,25 +7801,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8456,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>387.7874836212327</v>
       </c>
       <c r="N8" t="n">
-        <v>355.9351646788508</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>236.4897045983879</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>138.1424012074834</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229441</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26436,28 +26436,28 @@
         <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="K4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
+        <v>13668.39582977623</v>
+      </c>
+      <c r="M4" t="n">
         <v>13668.39582977621</v>
       </c>
-      <c r="M4" t="n">
-        <v>13668.39582977623</v>
-      </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776747.2438691662</v>
+        <v>-777211.5406611908</v>
       </c>
       <c r="C6" t="n">
         <v>-292781.4935264428</v>
@@ -26528,31 +26528,31 @@
         <v>-448585.2996202377</v>
       </c>
       <c r="E6" t="n">
-        <v>-877852.757771396</v>
+        <v>-877887.4956968318</v>
       </c>
       <c r="F6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="G6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="H6" t="n">
-        <v>-106800.0663905899</v>
+        <v>-106834.8043160255</v>
       </c>
       <c r="I6" t="n">
         <v>-136260.2296773234</v>
       </c>
       <c r="J6" t="n">
-        <v>-293255.7308762846</v>
+        <v>-293255.7308762845</v>
       </c>
       <c r="K6" t="n">
-        <v>-116832.5116836916</v>
+        <v>-116832.5116836917</v>
       </c>
       <c r="L6" t="n">
         <v>-116832.5116836916</v>
       </c>
       <c r="M6" t="n">
-        <v>-241041.0223917502</v>
+        <v>-241041.0223917501</v>
       </c>
       <c r="N6" t="n">
         <v>-136260.2296773233</v>
@@ -26561,7 +26561,7 @@
         <v>-116832.5116836916</v>
       </c>
       <c r="P6" t="n">
-        <v>-116832.5116836916</v>
+        <v>-116832.5116836917</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203977</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>260.7615551004096</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>268.733644534228</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>165.6133165965583</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>348.1798820387504</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>111.8998281280439</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>134.9863473781466</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>56.69292621882474</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,17 +27856,17 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>288.9614935341605</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.5347770659334</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>153.9790580905816</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>16.6958580319785</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,28 +31847,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622667</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32795,10 +32795,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33743,10 +33743,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,13 +35176,13 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>576.3727491014424</v>
       </c>
       <c r="N8" t="n">
-        <v>552.2323494182269</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402485</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K25" t="n">
         <v>288.6172359016746</v>
@@ -36531,10 +36531,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37324,10 +37324,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
